--- a/backend/data/rabotodateli.xlsx
+++ b/backend/data/rabotodateli.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Отчетный период</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>Среднее</t>
+  </si>
+  <si>
+    <t>3 квартал 2025</t>
+  </si>
+  <si>
+    <t>05.07.2025</t>
+  </si>
+  <si>
+    <t>Крупное</t>
+  </si>
+  <si>
+    <t>Частная</t>
+  </si>
+  <si>
+    <t>Государственная</t>
   </si>
 </sst>
 </file>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="3" sqref="B1:B1048576 E1:E1048576 F1:F1048576 K1:K1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -578,6 +593,142 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:12" ht="57.6">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57.6">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.6">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57.6">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/backend/data/rabotodateli.xlsx
+++ b/backend/data/rabotodateli.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Отчетный период</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>Государственная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "Благоустройство 3" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "Благоустройство 4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "Благоустройство 5 " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "Благоустройство 10" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "Благоустройство 152" </t>
   </si>
 </sst>
 </file>
@@ -477,7 +492,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -533,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -601,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -635,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -669,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -703,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
